--- a/Test-Case-Web-Raiyan.xlsx
+++ b/Test-Case-Web-Raiyan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SQA_B11\Class 3_TestCase\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F626E3E-479E-48A2-9521-89430379A7E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F0E414-332A-4775-863C-78D0DE5D682C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>PASS</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Failed to login with valid facebook ID</t>
+  </si>
+  <si>
+    <t>Chrome, Edge</t>
   </si>
 </sst>
 </file>
@@ -677,6 +680,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -692,16 +701,10 @@
     <xf numFmtId="12" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="12" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1743,9 +1746,9 @@
   </sheetPr>
   <dimension ref="A1:J982"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1764,11 +1767,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="55"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1783,16 +1786,16 @@
       <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="41" t="s">
         <v>33</v>
       </c>
@@ -1812,15 +1815,14 @@
         <v>0</v>
       </c>
       <c r="I2" s="21">
-        <f>COUNTIF(G7:G47, "PASS")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1833,20 +1835,21 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="22">
-        <f>COUNTIF(G8:G47, "Fail")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1869,21 +1872,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="24">
         <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2081,7 +2084,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="16" t="s">
